--- a/data_selection/result/地区生产总值-江门-解释变量-V2-先行-V2.xlsx
+++ b/data_selection/result/地区生产总值-江门-解释变量-V2-先行-V2.xlsx
@@ -1024,32 +1024,32 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>工业用电量</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>拥堵延时指数:江门:月:同比</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>工业销售产值</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>出口交货值</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>消费品价格指数</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>全社会用电量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>工业用电量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>消费品价格指数</t>
         </is>
       </c>
     </row>
@@ -1096,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
         <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1134,21 +1134,21 @@
       <c r="M3" t="n">
         <v>-9.1</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="N3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
         <v>8.5</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S3" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -1183,21 +1183,21 @@
       <c r="M4" t="n">
         <v>-11.9</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="N4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Q4" t="n">
         <v>8.1</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S4" t="n">
         <v>4.6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -1238,21 +1238,21 @@
       <c r="M5" t="n">
         <v>-11.9</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="N5" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
         <v>5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S5" t="n">
         <v>5.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="R5" t="n">
-        <v>8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -1293,21 +1293,21 @@
       <c r="M6" t="n">
         <v>-12.3</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="N6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S6" t="n">
         <v>5.7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -1352,21 +1352,21 @@
       <c r="M7" t="n">
         <v>-10.7</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="N7" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
         <v>5.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="R7" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1411,21 +1411,21 @@
       <c r="M8" t="n">
         <v>-10.2</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q8" t="n">
         <v>4.8</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S8" t="n">
         <v>5.2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="R8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -1470,21 +1470,21 @@
       <c r="M9" t="n">
         <v>-9.300000000000001</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q9" t="n">
         <v>4.7</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.7</v>
       </c>
     </row>
     <row r="10">
@@ -1527,21 +1527,21 @@
         <v>10.1995957167117</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="N10" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3.5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S10" t="n">
         <v>4.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -1586,21 +1586,21 @@
       <c r="M11" t="n">
         <v>-9.300000000000001</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
+      <c r="N11" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S11" t="n">
         <v>4.8</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -1645,21 +1645,21 @@
       <c r="M12" t="n">
         <v>-9.300000000000001</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="N12" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S12" t="n">
         <v>4.8</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -1704,21 +1704,21 @@
       <c r="M13" t="n">
         <v>-1.4</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
+      <c r="N13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.8</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S13" t="n">
         <v>8.6</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R13" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="14">
@@ -1763,21 +1763,21 @@
       <c r="M14" t="n">
         <v>1.9</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="N14" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q14" t="n">
         <v>4.3</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S14" t="n">
         <v>9.9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="R14" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -1822,21 +1822,21 @@
       <c r="M15" t="n">
         <v>3.7</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="N15" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3.5</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S15" t="n">
         <v>10.2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="R15" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -1881,21 +1881,21 @@
       <c r="M16" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
+      <c r="N16" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="n">
         <v>6.7</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S16" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="R16" t="n">
-        <v>12</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="17">
@@ -1940,21 +1940,21 @@
       <c r="M17" t="n">
         <v>11.2</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
+      <c r="N17" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="Q17" t="n">
         <v>7.4</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S17" t="n">
         <v>7.8</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="R17" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -2000,22 +2000,22 @@
         <v>10</v>
       </c>
       <c r="N18" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="O18" t="n">
         <v>2.02933494072737</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="Q18" t="n">
         <v>6.9</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S18" t="n">
         <v>7.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="R18" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="19">
@@ -2061,22 +2061,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="N19" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="O19" t="n">
         <v>-3.03091944670463</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="Q19" t="n">
         <v>7</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S19" t="n">
         <v>6.9</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="R19" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="20">
@@ -2122,22 +2122,22 @@
         <v>11.5635</v>
       </c>
       <c r="N20" t="n">
+        <v>9.342205999999999</v>
+      </c>
+      <c r="O20" t="n">
         <v>-5.72390572390571</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="Q20" t="n">
         <v>7.3</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S20" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.342205999999999</v>
-      </c>
-      <c r="R20" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="21">
@@ -2183,22 +2183,22 @@
         <v>11.4</v>
       </c>
       <c r="N21" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="O21" t="n">
         <v>-5.31701444622794</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Q21" t="n">
         <v>8</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S21" t="n">
         <v>7.2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="R21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.8</v>
       </c>
     </row>
     <row r="22">
@@ -2244,22 +2244,22 @@
         <v>11.6</v>
       </c>
       <c r="N22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O22" t="n">
         <v>-7.55512943432406</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q22" t="n">
         <v>7.8</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S22" t="n">
         <v>7.1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>15</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.8</v>
       </c>
     </row>
     <row r="23">
@@ -2299,17 +2299,17 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O23" t="n">
         <v>-7.56715853197122</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
         <v>7.1</v>
       </c>
-      <c r="Q23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2346,22 +2346,22 @@
         <v>17.3</v>
       </c>
       <c r="N24" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="O24" t="n">
         <v>-11.1499068901304</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="Q24" t="n">
         <v>21.3</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S24" t="n">
         <v>7.9</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="R24" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="25">
@@ -2401,22 +2401,22 @@
         <v>16.1</v>
       </c>
       <c r="N25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O25" t="n">
         <v>-8.328445747800609</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Q25" t="n">
         <v>12.9</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S25" t="n">
         <v>6.6</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -2462,22 +2462,22 @@
         <v>12.3</v>
       </c>
       <c r="N26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O26" t="n">
         <v>-5.10725229826352</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Q26" t="n">
         <v>12.4</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S26" t="n">
         <v>6.4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R26" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.2</v>
       </c>
     </row>
     <row r="27">
@@ -2523,22 +2523,22 @@
         <v>6.8</v>
       </c>
       <c r="N27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O27" t="n">
         <v>-6.90937561166569</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Q27" t="n">
         <v>12.2</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="R27" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2584,22 +2584,22 @@
         <v>4.8</v>
       </c>
       <c r="N28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O28" t="n">
         <v>-9.208432776451851</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q28" t="n">
         <v>12.2</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
         <v>7.4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="R28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2645,22 +2645,22 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O29" t="n">
         <v>-11.5596691610871</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="Q29" t="n">
         <v>13.4</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S29" t="n">
         <v>7.7</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="30">
@@ -2706,22 +2706,22 @@
         <v>3.9</v>
       </c>
       <c r="N30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O30" t="n">
         <v>-4.25844346549191</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q30" t="n">
         <v>13.3</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S30" t="n">
         <v>7.6</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="R30" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.3</v>
       </c>
     </row>
     <row r="31">
@@ -2765,22 +2765,22 @@
         <v>3.7</v>
       </c>
       <c r="N31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O31" t="n">
         <v>-2.28991596638653</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Q31" t="n">
         <v>13.9</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S31" t="n">
         <v>6.1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="32">
@@ -2826,22 +2826,22 @@
         <v>5.3</v>
       </c>
       <c r="N32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O32" t="n">
         <v>-3.15744861199407</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Q32" t="n">
         <v>14.1</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S32" t="n">
         <v>5.7</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="33">
@@ -2887,22 +2887,22 @@
         <v>6.2</v>
       </c>
       <c r="N33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O33" t="n">
         <v>-3.79589296826384</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Q33" t="n">
         <v>15.2</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S33" t="n">
         <v>5.4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R33" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="34">
@@ -2948,22 +2948,22 @@
         <v>5.8</v>
       </c>
       <c r="N34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O34" t="n">
         <v>-2.21039705280397</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Q34" t="n">
         <v>15.2</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
         <v>5.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="R34" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3009,22 +3009,22 @@
         <v>5.7</v>
       </c>
       <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
         <v>-2.41026984542833</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q35" t="n">
         <v>3.9</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
         <v>5.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>8</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3070,22 +3070,22 @@
         <v>1.6</v>
       </c>
       <c r="N36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O36" t="n">
         <v>-0.682448283216023</v>
-      </c>
-      <c r="O36" t="n">
-        <v>4.1</v>
       </c>
       <c r="P36" t="n">
         <v>4.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="R36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S36" t="n">
         <v>4.4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="37">
@@ -3131,22 +3131,22 @@
         <v>1.8162</v>
       </c>
       <c r="N37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O37" t="n">
         <v>-3.55220667384284</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q37" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S37" t="n">
         <v>4.8</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="38">
@@ -3192,22 +3192,22 @@
         <v>3.7</v>
       </c>
       <c r="N38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O38" t="n">
         <v>-3.74264087468461</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="Q38" t="n">
         <v>5.7</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S38" t="n">
         <v>2.6</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="39">
@@ -3253,22 +3253,22 @@
         <v>3.1</v>
       </c>
       <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
         <v>-6.59364731653889</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="Q39" t="n">
         <v>3.5</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S39" t="n">
         <v>2.9</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="40">
@@ -3314,22 +3314,22 @@
         <v>1.4</v>
       </c>
       <c r="N40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O40" t="n">
         <v>-2.00400801603203</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1.3</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S40" t="n">
         <v>3.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="41">
@@ -3375,22 +3375,22 @@
         <v>-0.5</v>
       </c>
       <c r="N41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O41" t="n">
         <v>-4.05346187554781</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="Q41" t="n">
         <v>-2.5</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S41" t="n">
         <v>3.8</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="42">
@@ -3436,22 +3436,22 @@
         <v>4.4</v>
       </c>
       <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
         <v>-4.94517308105785</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="Q42" t="n">
         <v>-3.8</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S42" t="n">
         <v>4.6</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
-      <c r="R42" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="43">
@@ -3497,22 +3497,22 @@
         <v>-4.6</v>
       </c>
       <c r="N43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O43" t="n">
         <v>-3.36980306345733</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="Q43" t="n">
         <v>-4.8</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S43" t="n">
         <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R43" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="44">
@@ -3558,22 +3558,22 @@
         <v>-6.6</v>
       </c>
       <c r="N44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O44" t="n">
         <v>-3.44976282880552</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="Q44" t="n">
         <v>-6</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S44" t="n">
         <v>4.7</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R44" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.9</v>
       </c>
     </row>
     <row r="45">
@@ -3617,22 +3617,22 @@
         <v>-7.3</v>
       </c>
       <c r="N45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O45" t="n">
         <v>-4.26956885726244</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="Q45" t="n">
         <v>-6.2</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S45" t="n">
         <v>4.4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R45" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4.2</v>
       </c>
     </row>
     <row r="46">
@@ -3678,22 +3678,22 @@
         <v>-43.9</v>
       </c>
       <c r="N46" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="O46" t="n">
         <v>-10.4161073825504</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
+        <v>-23</v>
+      </c>
+      <c r="Q46" t="n">
         <v>-22.2</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
+        <v>9.76459</v>
+      </c>
+      <c r="S46" t="n">
         <v>-17.2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-27.4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>-23</v>
-      </c>
-      <c r="S46" t="n">
-        <v>9.76459</v>
       </c>
     </row>
     <row r="47">
@@ -3739,22 +3739,22 @@
         <v>-29</v>
       </c>
       <c r="N47" t="n">
+        <v>-13</v>
+      </c>
+      <c r="O47" t="n">
         <v>-12.754992484432</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="Q47" t="n">
         <v>-16.1</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="S47" t="n">
         <v>-9</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-13</v>
-      </c>
-      <c r="R47" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="S47" t="n">
-        <v>9.1</v>
       </c>
     </row>
     <row r="48">
@@ -3800,22 +3800,22 @@
         <v>-26.9</v>
       </c>
       <c r="N48" t="n">
+        <v>-9</v>
+      </c>
+      <c r="O48" t="n">
         <v>-5.37946428571429</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="Q48" t="n">
         <v>-17.7</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R48" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="S48" t="n">
         <v>-7.1</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-9</v>
-      </c>
-      <c r="R48" t="n">
-        <v>-15.4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>8.6</v>
       </c>
     </row>
     <row r="49">
@@ -3861,22 +3861,22 @@
         <v>-26.6</v>
       </c>
       <c r="N49" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="O49" t="n">
         <v>-2.16251638269987</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="Q49" t="n">
         <v>-17.1</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
+        <v>8</v>
+      </c>
+      <c r="S49" t="n">
         <v>-3.7</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>-6.3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>-11.8</v>
-      </c>
-      <c r="S49" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -3922,22 +3922,22 @@
         <v>-25.5</v>
       </c>
       <c r="N50" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="O50" t="n">
         <v>3.89305816135084</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="Q50" t="n">
         <v>-14.6</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="S50" t="n">
         <v>-1.7</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="S50" t="n">
-        <v>7.6</v>
       </c>
     </row>
     <row r="51">
@@ -3983,22 +3983,22 @@
         <v>-23.8</v>
       </c>
       <c r="N51" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="O51" t="n">
         <v>3.24926153147012</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="Q51" t="n">
         <v>-12.3</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="S51" t="n">
         <v>0.7</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="S51" t="n">
-        <v>7.3</v>
       </c>
     </row>
     <row r="52">
@@ -4044,22 +4044,22 @@
         <v>-22.4</v>
       </c>
       <c r="N52" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="O52" t="n">
         <v>2.69467915049101</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="Q52" t="n">
         <v>-9.300000000000001</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
+        <v>7</v>
+      </c>
+      <c r="S52" t="n">
         <v>1.7</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="S52" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -4105,22 +4105,22 @@
         <v>-20.9</v>
       </c>
       <c r="N53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O53" t="n">
         <v>6.94413028726531</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="Q53" t="n">
         <v>-6.1</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S53" t="n">
         <v>3.1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R53" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="S53" t="n">
-        <v>6.6</v>
       </c>
     </row>
     <row r="54">
@@ -4166,22 +4166,22 @@
         <v>-19.1</v>
       </c>
       <c r="N54" t="n">
+        <v>2.597332</v>
+      </c>
+      <c r="O54" t="n">
         <v>3.66847826086959</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="Q54" t="n">
         <v>-4.7</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="S54" t="n">
         <v>3.3</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.597332</v>
-      </c>
-      <c r="R54" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="S54" t="n">
-        <v>6.1</v>
       </c>
     </row>
     <row r="55">
@@ -4227,22 +4227,22 @@
         <v>-18.6</v>
       </c>
       <c r="N55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O55" t="n">
         <v>1.07190710138454</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Q55" t="n">
         <v>-3.3</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S55" t="n">
         <v>4.2</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="R55" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5.6</v>
       </c>
     </row>
     <row r="56">
@@ -4288,22 +4288,22 @@
         <v>-17</v>
       </c>
       <c r="N56" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O56" t="n">
         <v>5.90292960209881</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q56" t="n">
         <v>-1.5</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S56" t="n">
         <v>4.8</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5.2</v>
       </c>
     </row>
     <row r="57">
@@ -4349,22 +4349,22 @@
         <v>34.4</v>
       </c>
       <c r="N57" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="O57" t="n">
         <v>9.97902307461796</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="Q57" t="n">
         <v>54.3</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="S57" t="n">
         <v>43.2</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R57" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="S57" t="n">
-        <v>-0.7</v>
       </c>
     </row>
     <row r="58">
@@ -4410,22 +4410,22 @@
         <v>18.8</v>
       </c>
       <c r="N58" t="n">
+        <v>41</v>
+      </c>
+      <c r="O58" t="n">
         <v>11.1247846418902</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="Q58" t="n">
         <v>45.2</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R58" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="S58" t="n">
         <v>32.71</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>41</v>
-      </c>
-      <c r="R58" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="59">
@@ -4465,22 +4465,22 @@
         <v>16</v>
       </c>
       <c r="N59" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="O59" t="n">
         <v>5.04836046237317</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q59" t="n">
         <v>41.4</v>
       </c>
-      <c r="P59" t="n">
+      <c r="R59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S59" t="n">
         <v>29.7</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="R59" t="n">
-        <v>40</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="60">
@@ -4513,10 +4513,10 @@
         <v>15.5491076577601</v>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="n">
         <v>-1.29493190444295</v>
       </c>
-      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
